--- a/excel/week1-temp.xlsx
+++ b/excel/week1-temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remilevesque/foot2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543306D2-702A-EF41-B9A8-A8FC9A477DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1266074-190E-FA4B-8303-A3F5B8E630FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>Timestamp</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Miami vs Bills Over Under (43.5)</t>
   </si>
   <si>
-    <t>Numéro d'assurance sociale</t>
-  </si>
-  <si>
-    <t>Superbowl winner (10 points)</t>
-  </si>
-  <si>
     <t>Papa Guini</t>
   </si>
   <si>
@@ -94,15 +88,6 @@
     <t>over</t>
   </si>
   <si>
-    <t>Bengals</t>
-  </si>
-  <si>
-    <t>1837 1816 1828</t>
-  </si>
-  <si>
-    <t>Chiefs</t>
-  </si>
-  <si>
     <t>Toppest G (charlem)</t>
   </si>
   <si>
@@ -118,12 +103,6 @@
     <t>34-13</t>
   </si>
   <si>
-    <t>topg.com</t>
-  </si>
-  <si>
-    <t>49ers</t>
-  </si>
-  <si>
     <t>ChocoLatine</t>
   </si>
   <si>
@@ -139,12 +118,6 @@
     <t>24-7 Bills</t>
   </si>
   <si>
-    <t>Buccs</t>
-  </si>
-  <si>
-    <t>SB Champ = 49 niners</t>
-  </si>
-  <si>
     <t>romi trump</t>
   </si>
   <si>
@@ -157,12 +130,6 @@
     <t>26-20</t>
   </si>
   <si>
-    <t>454 390 313</t>
-  </si>
-  <si>
-    <t>Chargers</t>
-  </si>
-  <si>
     <t>Naruto</t>
   </si>
   <si>
@@ -190,9 +157,6 @@
     <t>30 à 17</t>
   </si>
   <si>
-    <t>Masterlappy</t>
-  </si>
-  <si>
     <t>Fredy</t>
   </si>
   <si>
@@ -223,7 +187,37 @@
     <t>38-17</t>
   </si>
   <si>
-    <t>Bleu</t>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>27-24</t>
+  </si>
+  <si>
+    <t>24-21 Vikings</t>
+  </si>
+  <si>
+    <t>23-17</t>
+  </si>
+  <si>
+    <t>Giants (beurk)</t>
+  </si>
+  <si>
+    <t>21 a 14</t>
+  </si>
+  <si>
+    <t>24 à 17</t>
+  </si>
+  <si>
+    <t>17-14</t>
+  </si>
+  <si>
+    <t>Giants vs Vikings</t>
+  </si>
+  <si>
+    <t>Giants vs Vikings Score</t>
+  </si>
+  <si>
+    <t>Giants vs Vikings Over Under (48)</t>
   </si>
 </sst>
 </file>
@@ -233,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -246,13 +240,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,14 +262,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -574,12 +557,14 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -592,45 +577,47 @@
         <v>44939.676858773149</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -643,45 +630,47 @@
         <v>44939.934279189816</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -694,45 +683,47 @@
         <v>44940.316606215274</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -745,45 +736,47 @@
         <v>44940.376684062503</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -796,42 +789,47 @@
         <v>44940.479377314812</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -844,45 +842,47 @@
         <v>44940.491280011571</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -895,42 +895,47 @@
         <v>44940.63775991898</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -943,45 +948,47 @@
         <v>44940.662635416666</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="4">
-        <v>4206969</v>
+        <v>16</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -994,45 +1001,47 @@
         <v>44940.704032928239</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1041,9 +1050,6 @@
       <c r="U10" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/week1-temp.xlsx
+++ b/excel/week1-temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remilevesque/foot2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1266074-190E-FA4B-8303-A3F5B8E630FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9692A239-A7B7-8C42-9F22-57D68D76CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="79">
   <si>
     <t>Timestamp</t>
   </si>
@@ -88,6 +88,9 @@
     <t>over</t>
   </si>
   <si>
+    <t>Bengals</t>
+  </si>
+  <si>
     <t>Toppest G (charlem)</t>
   </si>
   <si>
@@ -218,6 +221,42 @@
   </si>
   <si>
     <t>Giants vs Vikings Over Under (48)</t>
+  </si>
+  <si>
+    <t>Ravens vs Bengals</t>
+  </si>
+  <si>
+    <t>Ravens vs Bengals Score</t>
+  </si>
+  <si>
+    <t>Ravens vs Bengals Over Under (40.5)</t>
+  </si>
+  <si>
+    <t>37-16</t>
+  </si>
+  <si>
+    <t>24-16</t>
+  </si>
+  <si>
+    <t>24-7</t>
+  </si>
+  <si>
+    <t>30-23</t>
+  </si>
+  <si>
+    <t>21 a 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 -17 </t>
+  </si>
+  <si>
+    <t>24-14</t>
+  </si>
+  <si>
+    <t>28-10</t>
+  </si>
+  <si>
+    <t>38-10</t>
   </si>
 </sst>
 </file>
@@ -486,9 +525,9 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:O10"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -557,17 +596,23 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -610,17 +655,23 @@
         <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -630,16 +681,16 @@
         <v>44939.934279189816</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -648,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
@@ -657,23 +708,29 @@
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -683,16 +740,16 @@
         <v>44940.316606215274</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
@@ -701,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
@@ -710,23 +767,29 @@
         <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -736,16 +799,16 @@
         <v>44940.376684062503</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -754,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
@@ -763,23 +826,29 @@
         <v>19</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -789,16 +858,16 @@
         <v>44940.479377314812</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
@@ -807,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
@@ -816,23 +885,29 @@
         <v>19</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -842,16 +917,16 @@
         <v>44940.491280011571</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
@@ -860,7 +935,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>16</v>
@@ -869,23 +944,29 @@
         <v>19</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -895,16 +976,16 @@
         <v>44940.63775991898</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -913,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
@@ -922,13 +1003,13 @@
         <v>19</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>15</v>
@@ -936,9 +1017,15 @@
       <c r="O8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -948,16 +1035,16 @@
         <v>44940.662635416666</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
@@ -966,7 +1053,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>21</v>
@@ -975,23 +1062,29 @@
         <v>19</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1001,13 +1094,13 @@
         <v>44940.704032928239</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -1019,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
@@ -1028,23 +1121,29 @@
         <v>19</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
